--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.229205</v>
+        <v>4.694776333333333</v>
       </c>
       <c r="H2">
-        <v>6.687615</v>
+        <v>14.084329</v>
       </c>
       <c r="I2">
-        <v>0.01491733042403661</v>
+        <v>0.03090644368652182</v>
       </c>
       <c r="J2">
-        <v>0.01491733042403661</v>
+        <v>0.03090644368652182</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>18.70849033333333</v>
+        <v>0.03428266666666667</v>
       </c>
       <c r="N2">
-        <v>56.125471</v>
+        <v>0.102848</v>
       </c>
       <c r="O2">
-        <v>0.8518406098705651</v>
+        <v>0.01042589467522935</v>
       </c>
       <c r="P2">
-        <v>0.851840609870565</v>
+        <v>0.01042589467522935</v>
       </c>
       <c r="Q2">
-        <v>41.70506019351834</v>
+        <v>0.1609494521102222</v>
       </c>
       <c r="R2">
-        <v>375.345541741665</v>
+        <v>1.448545068992</v>
       </c>
       <c r="S2">
-        <v>0.01270718784605208</v>
+        <v>0.0003222273266615836</v>
       </c>
       <c r="T2">
-        <v>0.01270718784605208</v>
+        <v>0.0003222273266615836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.229205</v>
+        <v>4.694776333333333</v>
       </c>
       <c r="H3">
-        <v>6.687615</v>
+        <v>14.084329</v>
       </c>
       <c r="I3">
-        <v>0.01491733042403661</v>
+        <v>0.03090644368652182</v>
       </c>
       <c r="J3">
-        <v>0.01491733042403661</v>
+        <v>0.03090644368652182</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.026484</v>
       </c>
       <c r="O3">
-        <v>0.07628912719618224</v>
+        <v>0.5095441114141793</v>
       </c>
       <c r="P3">
-        <v>0.07628912719618224</v>
+        <v>0.5095441114141792</v>
       </c>
       <c r="Q3">
-        <v>3.735021088406666</v>
+        <v>7.866072707692888</v>
       </c>
       <c r="R3">
-        <v>33.61518979566</v>
+        <v>70.794654369236</v>
       </c>
       <c r="S3">
-        <v>0.001138030118146808</v>
+        <v>0.01574819638522114</v>
       </c>
       <c r="T3">
-        <v>0.001138030118146808</v>
+        <v>0.01574819638522113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.229205</v>
+        <v>4.694776333333333</v>
       </c>
       <c r="H4">
-        <v>6.687615</v>
+        <v>14.084329</v>
       </c>
       <c r="I4">
-        <v>0.01491733042403661</v>
+        <v>0.03090644368652182</v>
       </c>
       <c r="J4">
-        <v>0.01491733042403661</v>
+        <v>0.03090644368652182</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.578445666666667</v>
+        <v>1.578445666666666</v>
       </c>
       <c r="N4">
-        <v>4.735337</v>
+        <v>4.735336999999999</v>
       </c>
       <c r="O4">
-        <v>0.07187026293325276</v>
+        <v>0.4800299939105914</v>
       </c>
       <c r="P4">
-        <v>0.07187026293325274</v>
+        <v>0.4800299939105914</v>
       </c>
       <c r="Q4">
-        <v>3.518678972361667</v>
+        <v>7.410449359319221</v>
       </c>
       <c r="R4">
-        <v>31.668110751255</v>
+        <v>66.694044233873</v>
       </c>
       <c r="S4">
-        <v>0.001072112459837722</v>
+        <v>0.01483601997463911</v>
       </c>
       <c r="T4">
-        <v>0.001072112459837722</v>
+        <v>0.01483601997463911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>277.928207</v>
       </c>
       <c r="I5">
-        <v>0.6199440156137945</v>
+        <v>0.609881555489188</v>
       </c>
       <c r="J5">
-        <v>0.6199440156137944</v>
+        <v>0.609881555489188</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>18.70849033333333</v>
+        <v>0.03428266666666667</v>
       </c>
       <c r="N5">
-        <v>56.125471</v>
+        <v>0.102848</v>
       </c>
       <c r="O5">
-        <v>0.8518406098705651</v>
+        <v>0.01042589467522935</v>
       </c>
       <c r="P5">
-        <v>0.851840609870565</v>
+        <v>0.01042589467522935</v>
       </c>
       <c r="Q5">
-        <v>1733.205724673389</v>
+        <v>3.176040025948445</v>
       </c>
       <c r="R5">
-        <v>15598.85152206049</v>
+        <v>28.584360233536</v>
       </c>
       <c r="S5">
-        <v>0.5280934883460618</v>
+        <v>0.006358560861895318</v>
       </c>
       <c r="T5">
-        <v>0.5280934883460617</v>
+        <v>0.006358560861895317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>277.928207</v>
       </c>
       <c r="I6">
-        <v>0.6199440156137945</v>
+        <v>0.609881555489188</v>
       </c>
       <c r="J6">
-        <v>0.6199440156137944</v>
+        <v>0.609881555489188</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.026484</v>
       </c>
       <c r="O6">
-        <v>0.07628912719618224</v>
+        <v>0.5095441114141793</v>
       </c>
       <c r="P6">
-        <v>0.07628912719618224</v>
+        <v>0.5095441114141792</v>
       </c>
       <c r="Q6">
         <v>155.2224095149098</v>
@@ -818,10 +818,10 @@
         <v>1397.001685634188</v>
       </c>
       <c r="S6">
-        <v>0.04729498786167276</v>
+        <v>0.3107615552596358</v>
       </c>
       <c r="T6">
-        <v>0.04729498786167275</v>
+        <v>0.3107615552596357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>277.928207</v>
       </c>
       <c r="I7">
-        <v>0.6199440156137945</v>
+        <v>0.609881555489188</v>
       </c>
       <c r="J7">
-        <v>0.6199440156137944</v>
+        <v>0.609881555489188</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.578445666666667</v>
+        <v>1.578445666666666</v>
       </c>
       <c r="N7">
-        <v>4.735337</v>
+        <v>4.735336999999999</v>
       </c>
       <c r="O7">
-        <v>0.07187026293325276</v>
+        <v>0.4800299939105914</v>
       </c>
       <c r="P7">
-        <v>0.07187026293325274</v>
+        <v>0.4800299939105914</v>
       </c>
       <c r="Q7">
-        <v>146.2315246611955</v>
+        <v>146.2315246611954</v>
       </c>
       <c r="R7">
         <v>1316.083721950759</v>
       </c>
       <c r="S7">
-        <v>0.04455553940605997</v>
+        <v>0.2927614393676569</v>
       </c>
       <c r="T7">
-        <v>0.04455553940605995</v>
+        <v>0.2927614393676569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.56532033333333</v>
+        <v>54.56532033333334</v>
       </c>
       <c r="H8">
         <v>163.695961</v>
       </c>
       <c r="I8">
-        <v>0.365138653962169</v>
+        <v>0.3592120008242901</v>
       </c>
       <c r="J8">
-        <v>0.365138653962169</v>
+        <v>0.3592120008242901</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>18.70849033333333</v>
+        <v>0.03428266666666667</v>
       </c>
       <c r="N8">
-        <v>56.125471</v>
+        <v>0.102848</v>
       </c>
       <c r="O8">
-        <v>0.8518406098705651</v>
+        <v>0.01042589467522935</v>
       </c>
       <c r="P8">
-        <v>0.851840609870565</v>
+        <v>0.01042589467522935</v>
       </c>
       <c r="Q8">
-        <v>1020.834767991403</v>
+        <v>1.870644688547556</v>
       </c>
       <c r="R8">
-        <v>9187.512911922629</v>
+        <v>16.835802196928</v>
       </c>
       <c r="S8">
-        <v>0.3110399336784513</v>
+        <v>0.003745106486672447</v>
       </c>
       <c r="T8">
-        <v>0.3110399336784512</v>
+        <v>0.003745106486672446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.56532033333333</v>
+        <v>54.56532033333334</v>
       </c>
       <c r="H9">
         <v>163.695961</v>
       </c>
       <c r="I9">
-        <v>0.365138653962169</v>
+        <v>0.3592120008242901</v>
       </c>
       <c r="J9">
-        <v>0.365138653962169</v>
+        <v>0.3592120008242901</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>5.026484</v>
       </c>
       <c r="O9">
-        <v>0.07628912719618224</v>
+        <v>0.5095441114141793</v>
       </c>
       <c r="P9">
-        <v>0.07628912719618224</v>
+        <v>0.5095441114141792</v>
       </c>
       <c r="Q9">
-        <v>91.42390320345821</v>
+        <v>91.42390320345822</v>
       </c>
       <c r="R9">
-        <v>822.815128831124</v>
+        <v>822.8151288311241</v>
       </c>
       <c r="S9">
-        <v>0.02785610921636268</v>
+        <v>0.1830343597693224</v>
       </c>
       <c r="T9">
-        <v>0.02785610921636268</v>
+        <v>0.1830343597693223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.56532033333333</v>
+        <v>54.56532033333334</v>
       </c>
       <c r="H10">
         <v>163.695961</v>
       </c>
       <c r="I10">
-        <v>0.365138653962169</v>
+        <v>0.3592120008242901</v>
       </c>
       <c r="J10">
-        <v>0.365138653962169</v>
+        <v>0.3592120008242901</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.578445666666667</v>
+        <v>1.578445666666666</v>
       </c>
       <c r="N10">
-        <v>4.735337</v>
+        <v>4.735336999999999</v>
       </c>
       <c r="O10">
-        <v>0.07187026293325276</v>
+        <v>0.4800299939105914</v>
       </c>
       <c r="P10">
-        <v>0.07187026293325274</v>
+        <v>0.4800299939105914</v>
       </c>
       <c r="Q10">
-        <v>86.12839343042856</v>
+        <v>86.12839343042855</v>
       </c>
       <c r="R10">
         <v>775.1555408738569</v>
       </c>
       <c r="S10">
-        <v>0.02624261106735508</v>
+        <v>0.1724325345682954</v>
       </c>
       <c r="T10">
-        <v>0.02624261106735508</v>
+        <v>0.1724325345682954</v>
       </c>
     </row>
   </sheetData>
